--- a/src/backend/excelTemplate/content_template.xlsx
+++ b/src/backend/excelTemplate/content_template.xlsx
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>contentcode</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>director</t>
     </r>
     <r>
@@ -287,6 +293,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>内容编码</t>
     </r>
     <r>
@@ -325,6 +338,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>内容名称</t>
     </r>
     <r>
@@ -359,6 +379,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>列表名称</t>
     </r>
     <r>
@@ -394,6 +421,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>是否专辑</t>
     </r>
     <r>
@@ -453,6 +487,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>一级分类编码</t>
     </r>
     <r>
@@ -505,25 +546,61 @@
     <t>CPSP编码</t>
   </si>
   <si>
-    <t>&lt;%forRow rsl,i in _data_%&gt;&lt;%="CT"+rsl.id%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rsl.id%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rsl.name%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%~rsl.isAlbum%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rsl.posterSmall%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rsl.posterLarge%&gt;</t>
+    <t>&lt;%forRBegin bundle,i in _data_%&gt;&lt;%="CT"+bundle.id%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%="TX"+bundle.id%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=bundle.name%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~bundle.isAlbum%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=bundle.posterSmall%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=bundle.posterLarge%&gt;</t>
   </si>
   <si>
     <t>&lt;%="CG030000"%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=bundle.summary%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=bundle.copyright%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%forRow video,m in bundle.videos%&gt;&lt;%="CT"+video.id%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%="TX"+video.id%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=video.name%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%~0%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%="CT"+bundle.id%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%="666666"%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=video.poster%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=video.duration%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=video.size%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%forREnd%&gt;</t>
   </si>
 </sst>
 </file>
@@ -536,7 +613,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,13 +623,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -586,6 +656,80 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -593,15 +737,32 @@
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -624,29 +785,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -655,71 +793,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -751,31 +841,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,156 +1021,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -994,6 +1084,21 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -1003,15 +1108,66 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1029,32 +1185,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,32 +1217,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,8 +1239,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,8 +1248,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,155 +1294,155 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1296,37 +1452,79 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1679,7 +1877,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1779,7 +1977,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="15"/>
+      <c r="T2" s="29"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="20.25" spans="1:20">
       <c r="A3" s="8" t="s">
@@ -1850,480 +2048,523 @@
       <c r="B4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="10" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15" t="s">
         <v>45</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="14" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="16"/>
-    </row>
-    <row r="5" ht="22" customHeight="1" spans="8:11">
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" ht="22" customHeight="1" spans="8:11">
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" ht="24.75" customHeight="1" spans="8:11">
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" ht="21" customHeight="1" spans="1:19">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="23"/>
+      <c r="N5" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="R5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" ht="22" customHeight="1" spans="1:11">
+      <c r="A6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" ht="19" customHeight="1" spans="1:11">
+      <c r="A7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" ht="32.25" customHeight="1" spans="8:11">
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" ht="30.75" customHeight="1" spans="8:11">
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" ht="34.5" customHeight="1" spans="8:11">
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" ht="35.25" customHeight="1" spans="8:11">
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" ht="36" customHeight="1" spans="8:11">
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
     </row>
     <row r="13" spans="8:11">
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" spans="8:11">
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" spans="8:11">
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
     </row>
     <row r="16" spans="8:11">
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="8:11">
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="8:11">
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
     </row>
     <row r="19" spans="8:11">
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
     </row>
     <row r="20" spans="8:11">
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
     </row>
     <row r="21" spans="8:11">
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
     </row>
     <row r="22" spans="8:11">
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
     </row>
     <row r="23" spans="8:11">
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
     </row>
     <row r="24" spans="8:11">
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
     </row>
     <row r="25" spans="8:11">
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
     </row>
     <row r="26" spans="8:11">
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
     </row>
     <row r="27" spans="8:11">
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
     </row>
     <row r="28" spans="8:11">
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
     </row>
     <row r="29" spans="8:11">
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
     </row>
     <row r="30" spans="8:11">
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
     </row>
     <row r="31" spans="8:11">
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
     </row>
     <row r="32" spans="8:11">
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
     </row>
     <row r="33" spans="8:11">
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
     </row>
     <row r="34" spans="8:11">
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
     </row>
     <row r="35" spans="8:11">
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
     </row>
     <row r="36" spans="8:11">
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
     </row>
     <row r="37" spans="8:11">
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
     </row>
     <row r="38" spans="8:11">
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
     </row>
     <row r="39" spans="8:11">
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
     </row>
     <row r="40" spans="8:11">
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
     </row>
     <row r="41" spans="8:11">
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
     </row>
     <row r="42" spans="8:11">
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
     </row>
     <row r="43" spans="8:11">
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
     </row>
     <row r="44" spans="8:11">
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
     </row>
     <row r="45" spans="8:11">
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
     </row>
     <row r="46" spans="8:11">
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
     </row>
     <row r="47" spans="8:11">
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
     </row>
     <row r="48" spans="8:11">
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
     </row>
     <row r="49" spans="8:11">
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
     </row>
     <row r="50" spans="8:11">
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
     </row>
     <row r="51" spans="8:11">
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
     </row>
     <row r="52" spans="8:11">
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
     </row>
     <row r="53" spans="8:11">
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
     </row>
     <row r="54" spans="8:11">
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
     </row>
     <row r="55" spans="8:11">
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
     </row>
     <row r="56" spans="8:11">
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
     </row>
     <row r="57" spans="8:11">
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
     </row>
     <row r="58" spans="8:11">
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
     </row>
     <row r="59" spans="8:11">
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
     </row>
     <row r="60" spans="8:11">
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
     </row>
     <row r="61" spans="8:11">
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
     </row>
     <row r="62" spans="8:11">
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
     </row>
     <row r="63" spans="8:11">
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
     </row>
     <row r="64" spans="8:11">
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
     </row>
     <row r="65" spans="8:11">
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
     </row>
     <row r="66" spans="8:11">
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
     </row>
     <row r="67" spans="8:11">
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
     </row>
     <row r="68" spans="8:11">
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
     </row>
     <row r="69" spans="8:11">
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
     </row>
     <row r="70" spans="8:11">
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
     </row>
     <row r="71" spans="8:11">
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
     </row>
     <row r="72" spans="8:11">
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
     </row>
     <row r="73" spans="8:11">
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
     </row>
     <row r="74" spans="8:11">
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
     </row>
     <row r="75" spans="8:11">
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
     </row>
     <row r="76" spans="8:11">
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
     </row>
     <row r="77" spans="8:11">
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
     </row>
     <row r="78" spans="8:11">
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
